--- a/biology/Zoologie/Hime_pyrhistion/Hime_pyrhistion.xlsx
+++ b/biology/Zoologie/Hime_pyrhistion/Hime_pyrhistion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hime pyrhistion est une espèce de poissons marins téléostéens de la famille des Aulopidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Hime pyrhistion a été décrite pour la première fois en 2013 par les ichtyologues  Martin Fellows Gomon (d), Carl D. Struthers (d) et Andrew L. Stewart (d)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Hime pyrhistion a été décrite pour la première fois en 2013 par les ichtyologues  Martin Fellows Gomon (d), Carl D. Struthers (d) et Andrew L. Stewart (d).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hime pyrhistion possède un corps allongé qui peut atteindre les 26,8 cm, et dont l'holotype est un mâle mesurant 23,6 cm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hime pyrhistion possède un corps allongé qui peut atteindre les 26,8 cm, et dont l'holotype est un mâle mesurant 23,6 cm.
 Comme les membres de la famille des Aulopidae, l'espèce a une nageoire dorsale dont la longueur dépasse la moitié de celle de l'ensemble du corps.
 </t>
         </is>
@@ -574,9 +590,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se croise au large de l'Australie, du Japon et de la Nouvelle-Zélande dans l'océan Pacifique, à des profondeurs variant de 80 à 380 m[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se croise au large de l'Australie, du Japon et de la Nouvelle-Zélande dans l'océan Pacifique, à des profondeurs variant de 80 à 380 m.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, pyrhistion, du grec « pyro », feu, et « histion », voile, fait référence aux couleurs rouge et jaune de la nageoire dorsale, caractéristiques de l'espèce[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, pyrhistion, du grec « pyro », feu, et « histion », voile, fait référence aux couleurs rouge et jaune de la nageoire dorsale, caractéristiques de l'espèce.
 </t>
         </is>
       </c>
@@ -633,15 +653,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Comportement</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Proies
-Prédateurs</t>
-        </is>
-      </c>
+          <t>Écologie et environnement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -664,36 +681,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Écologie et environnement</t>
+          <t>Publication originale</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Hime_pyrhistion</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hime_pyrhistion</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Publication originale</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) Martin F. Gomon, Carl D. Struthers et Andrew L. Stewart, « A New Genus and Two New Species of the Family Aulopidae (Aulopiformes), Commonly Referred to as Aulopus, Flagfins, Sergeant Bakers or Threadsails, in Australasian Waters », Species Diversity, vol. 18, no 2,‎ 2013, p. 141-161 (ISSN 1342-1670 et 2189-7301, DOI 10.12782/SD.18.2.141, lire en ligne)</t>
         </is>
